--- a/fishSurveys/data/fishSurveyMetaData.xlsx
+++ b/fishSurveys/data/fishSurveyMetaData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -29,11 +29,41 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,15 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -388,7 +420,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -396,29 +428,1307 @@
       <c r="A2" s="1">
         <v>44201</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.34236111111111112</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44207</v>
+        <v>44201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.34583333333333338</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44179</v>
+        <v>44201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.37708333333333338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44181</v>
+        <v>44201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.36319444444444443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.44513888888888892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.32222222222222224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.41944444444444445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.49791666666666662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.53402777777777777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.46458333333333335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.4916666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.36319444444444443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.36736111111111108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.53472222222222221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fishSurveys/data/fishSurveyMetaData.xlsx
+++ b/fishSurveys/data/fishSurveyMetaData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A94"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1724,258 @@
       </c>
       <c r="D94" s="2">
         <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.46180555555555558</v>
       </c>
     </row>
   </sheetData>
